--- a/2021/Realme/Others/Price List/realme price list.xlsx
+++ b/2021/Realme/Others/Price List/realme price list.xlsx
@@ -190,9 +190,6 @@
     <t xml:space="preserve">GT Master </t>
   </si>
   <si>
-    <t>C11  2021  (2GB+32GB)</t>
-  </si>
-  <si>
     <t>GT NEO  2(8+128 GB)</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (Last Update 31-12-2021)</t>
+  </si>
+  <si>
+    <t>C11 (2GB+32GB)</t>
   </si>
 </sst>
 </file>
@@ -3325,7 +3325,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B7" s="15">
         <v>8590</v>
@@ -3406,12 +3406,12 @@
         <v>9090</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="15">
         <v>10460</v>
@@ -3420,7 +3420,7 @@
         <v>11090</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3434,12 +3434,12 @@
         <v>8990</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="15">
         <v>10510</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="15">
         <v>10780</v>
@@ -3460,7 +3460,7 @@
         <v>11490</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,12 +3474,12 @@
         <v>12490</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="15">
         <v>13350</v>
@@ -3488,7 +3488,7 @@
         <v>14290</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>15690</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>22990</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>22990</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3594,12 +3594,12 @@
         <v>33990</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="15">
         <v>37340</v>
@@ -3608,7 +3608,7 @@
         <v>39990</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3619,14 +3619,14 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
